--- a/data_craw/quarter/balance_sheet_quarter/ocb.xlsx
+++ b/data_craw/quarter/balance_sheet_quarter/ocb.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,45 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>722858619075</v>
+        <v>729453939508</v>
       </c>
       <c r="C4" t="n">
-        <v>712715793026</v>
+        <v>932451084828</v>
       </c>
       <c r="D4" t="n">
-        <v>777148141835</v>
+        <v>933655596637</v>
       </c>
       <c r="E4" t="n">
-        <v>836839587961</v>
+        <v>885833857377</v>
       </c>
       <c r="F4" t="n">
-        <v>729453939508</v>
+        <v>808185550238</v>
       </c>
       <c r="G4" t="n">
-        <v>932451084828</v>
+        <v>713556130605</v>
       </c>
       <c r="H4" t="n">
-        <v>933655596637</v>
+        <v>740173562620</v>
       </c>
       <c r="I4" t="n">
-        <v>885833857377</v>
+        <v>805407206541</v>
       </c>
       <c r="J4" t="n">
-        <v>808185550238</v>
+        <v>741231131283</v>
       </c>
       <c r="K4" t="n">
-        <v>713556130605</v>
+        <v>793464354495</v>
       </c>
       <c r="L4" t="n">
-        <v>740173562620</v>
+        <v>744524175191</v>
       </c>
       <c r="M4" t="n">
-        <v>805407206541</v>
-      </c>
-      <c r="N4" t="n">
-        <v>741231131283</v>
-      </c>
-      <c r="O4" t="n">
-        <v>793464354495</v>
-      </c>
-      <c r="P4" t="n">
-        <v>744524175191</v>
-      </c>
-      <c r="Q4" t="n">
         <v>752419319059</v>
       </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -674,53 +666,45 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2447075775714</v>
+        <v>1624139058383</v>
       </c>
       <c r="C7" t="n">
-        <v>2072665956459</v>
+        <v>4087881039948</v>
       </c>
       <c r="D7" t="n">
-        <v>2300692183665</v>
+        <v>3090309636162</v>
       </c>
       <c r="E7" t="n">
-        <v>3262333307952</v>
+        <v>2090440914264</v>
       </c>
       <c r="F7" t="n">
-        <v>1624139058383</v>
+        <v>2913736393377</v>
       </c>
       <c r="G7" t="n">
-        <v>4087881039948</v>
+        <v>3852855231576</v>
       </c>
       <c r="H7" t="n">
-        <v>3090309636162</v>
+        <v>2235926116801</v>
       </c>
       <c r="I7" t="n">
-        <v>2090440914264</v>
+        <v>2771860542766</v>
       </c>
       <c r="J7" t="n">
-        <v>2913736393377</v>
+        <v>3305982077383</v>
       </c>
       <c r="K7" t="n">
-        <v>3852855231576</v>
+        <v>3225386957711</v>
       </c>
       <c r="L7" t="n">
-        <v>2235926116801</v>
+        <v>2449893749455</v>
       </c>
       <c r="M7" t="n">
-        <v>2771860542766</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3305982077383</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3225386957711</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2449893749455</v>
-      </c>
-      <c r="Q7" t="n">
         <v>2876886270550</v>
       </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -798,53 +782,45 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7697290932603</v>
+        <v>6209942002625</v>
       </c>
       <c r="C11" t="n">
-        <v>17493631511831</v>
+        <v>16383840701485</v>
       </c>
       <c r="D11" t="n">
-        <v>14504274995772</v>
+        <v>18361892941276</v>
       </c>
       <c r="E11" t="n">
-        <v>8285654109249</v>
+        <v>12068288961791</v>
       </c>
       <c r="F11" t="n">
-        <v>6209942002625</v>
+        <v>10277826896383</v>
       </c>
       <c r="G11" t="n">
-        <v>16383840701485</v>
+        <v>22594539046752</v>
       </c>
       <c r="H11" t="n">
-        <v>18361892941276</v>
+        <v>27274485363704</v>
       </c>
       <c r="I11" t="n">
-        <v>12068288961791</v>
+        <v>27190224090594</v>
       </c>
       <c r="J11" t="n">
-        <v>10277826896383</v>
+        <v>23763914693290</v>
       </c>
       <c r="K11" t="n">
-        <v>22594539046752</v>
+        <v>20636255208899</v>
       </c>
       <c r="L11" t="n">
-        <v>27274485363704</v>
+        <v>22714914613513</v>
       </c>
       <c r="M11" t="n">
-        <v>27190224090594</v>
-      </c>
-      <c r="N11" t="n">
-        <v>23763914693290</v>
-      </c>
-      <c r="O11" t="n">
-        <v>20636255208899</v>
-      </c>
-      <c r="P11" t="n">
-        <v>22714914613513</v>
-      </c>
-      <c r="Q11" t="n">
         <v>22490909523715</v>
       </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -853,53 +829,45 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>880435610868</v>
+        <v>5453824404230</v>
       </c>
       <c r="C12" t="n">
-        <v>14352506292012</v>
+        <v>15188220574435</v>
       </c>
       <c r="D12" t="n">
-        <v>13271544675014</v>
+        <v>16657582960097</v>
       </c>
       <c r="E12" t="n">
-        <v>7331871494180</v>
+        <v>9796936030030</v>
       </c>
       <c r="F12" t="n">
-        <v>5453824404230</v>
+        <v>8266372233738</v>
       </c>
       <c r="G12" t="n">
-        <v>15188220574435</v>
+        <v>21131422167710</v>
       </c>
       <c r="H12" t="n">
-        <v>16657582960097</v>
+        <v>25448964601012</v>
       </c>
       <c r="I12" t="n">
-        <v>9796936030030</v>
+        <v>24064395866885</v>
       </c>
       <c r="J12" t="n">
-        <v>8266372233738</v>
+        <v>20440471382484</v>
       </c>
       <c r="K12" t="n">
-        <v>21131422167710</v>
+        <v>18426225031606</v>
       </c>
       <c r="L12" t="n">
-        <v>25448964601012</v>
+        <v>21368962702474</v>
       </c>
       <c r="M12" t="n">
-        <v>24064395866885</v>
-      </c>
-      <c r="N12" t="n">
-        <v>20440471382484</v>
-      </c>
-      <c r="O12" t="n">
-        <v>18426225031606</v>
-      </c>
-      <c r="P12" t="n">
-        <v>21368962702474</v>
-      </c>
-      <c r="Q12" t="n">
         <v>19931982934197</v>
       </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -907,50 +875,44 @@
           <t>2. Trả trước cho người bán ngắn hạn</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="n">
-        <v>3141125219819</v>
-      </c>
+      <c r="B13" t="n">
+        <v>756117598395</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>1232730320758</v>
+        <v>1704309981179</v>
       </c>
       <c r="E13" t="n">
-        <v>953782615069</v>
+        <v>2271352931761</v>
       </c>
       <c r="F13" t="n">
-        <v>756117598395</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+        <v>2011454662645</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1463116879042</v>
+      </c>
       <c r="H13" t="n">
-        <v>1704309981179</v>
+        <v>1825520762692</v>
       </c>
       <c r="I13" t="n">
-        <v>2271352931761</v>
+        <v>3125828223709</v>
       </c>
       <c r="J13" t="n">
-        <v>2011454662645</v>
+        <v>3323443310806</v>
       </c>
       <c r="K13" t="n">
-        <v>1463116879042</v>
+        <v>2210030177293</v>
       </c>
       <c r="L13" t="n">
-        <v>1825520762692</v>
+        <v>1345951911039</v>
       </c>
       <c r="M13" t="n">
-        <v>3125828223709</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3323443310806</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2210030177293</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1345951911039</v>
-      </c>
-      <c r="Q13" t="n">
         <v>2558926589518</v>
       </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1074,13 +1036,13 @@
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>1195620127050</v>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>1195620127050</v>
-      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1098,50 +1060,44 @@
           <t>IV. Hàng tồn kho</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>2591374000000</v>
+      </c>
       <c r="C20" t="n">
-        <v>496581000000</v>
+        <v>929409500000</v>
       </c>
       <c r="D20" t="n">
-        <v>1707909959196</v>
+        <v>7184424500000</v>
       </c>
       <c r="E20" t="n">
-        <v>815913760000</v>
+        <v>4877570700000</v>
       </c>
       <c r="F20" t="n">
-        <v>2591374000000</v>
+        <v>3615828387500</v>
       </c>
       <c r="G20" t="n">
-        <v>929409500000</v>
+        <v>4565000020000</v>
       </c>
       <c r="H20" t="n">
-        <v>7184424500000</v>
+        <v>1736369370000</v>
       </c>
       <c r="I20" t="n">
-        <v>4877570700000</v>
+        <v>954707000000</v>
       </c>
       <c r="J20" t="n">
-        <v>3615828387500</v>
+        <v>372157500000</v>
       </c>
       <c r="K20" t="n">
-        <v>4565000020000</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1736369370000</v>
-      </c>
+        <v>142837500000</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>954707000000</v>
-      </c>
-      <c r="N20" t="n">
-        <v>372157500000</v>
-      </c>
-      <c r="O20" t="n">
-        <v>142837500000</v>
-      </c>
+        <v>108165500000</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="n">
-        <v>108165500000</v>
-      </c>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1149,50 +1105,44 @@
           <t>1. Hàng tồn kho</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>2591374000000</v>
+      </c>
       <c r="C21" t="n">
-        <v>496581000000</v>
+        <v>929409500000</v>
       </c>
       <c r="D21" t="n">
-        <v>1707909959196</v>
+        <v>7184424500000</v>
       </c>
       <c r="E21" t="n">
-        <v>815913760000</v>
+        <v>4877570700000</v>
       </c>
       <c r="F21" t="n">
-        <v>2591374000000</v>
+        <v>3615828387500</v>
       </c>
       <c r="G21" t="n">
-        <v>929409500000</v>
+        <v>4565000020000</v>
       </c>
       <c r="H21" t="n">
-        <v>7184424500000</v>
+        <v>1736369370000</v>
       </c>
       <c r="I21" t="n">
-        <v>4877570700000</v>
+        <v>954707000000</v>
       </c>
       <c r="J21" t="n">
-        <v>3615828387500</v>
+        <v>372157500000</v>
       </c>
       <c r="K21" t="n">
-        <v>4565000020000</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1736369370000</v>
-      </c>
+        <v>142837500000</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>954707000000</v>
-      </c>
-      <c r="N21" t="n">
-        <v>372157500000</v>
-      </c>
-      <c r="O21" t="n">
-        <v>142837500000</v>
-      </c>
+        <v>108165500000</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="n">
-        <v>108165500000</v>
-      </c>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1224,53 +1174,45 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>65434715102</v>
+        <v>56422177627</v>
       </c>
       <c r="C23" t="n">
-        <v>70802974907</v>
+        <v>65588137740</v>
       </c>
       <c r="D23" t="n">
-        <v>1202194690</v>
+        <v>67533871763</v>
       </c>
       <c r="E23" t="n">
-        <v>72305406884</v>
+        <v>920670966099</v>
       </c>
       <c r="F23" t="n">
-        <v>56422177627</v>
+        <v>90785408862</v>
       </c>
       <c r="G23" t="n">
-        <v>65588137740</v>
+        <v>125806840360</v>
       </c>
       <c r="H23" t="n">
-        <v>67533871763</v>
+        <v>37788259153</v>
       </c>
       <c r="I23" t="n">
-        <v>920670966099</v>
+        <v>3205287719</v>
       </c>
       <c r="J23" t="n">
-        <v>90785408862</v>
+        <v>42478862801</v>
       </c>
       <c r="K23" t="n">
-        <v>125806840360</v>
+        <v>360044007067</v>
       </c>
       <c r="L23" t="n">
-        <v>37788259153</v>
+        <v>78410719675</v>
       </c>
       <c r="M23" t="n">
-        <v>3205287719</v>
-      </c>
-      <c r="N23" t="n">
-        <v>42478862801</v>
-      </c>
-      <c r="O23" t="n">
-        <v>360044007067</v>
-      </c>
-      <c r="P23" t="n">
-        <v>78410719675</v>
-      </c>
-      <c r="Q23" t="n">
         <v>11343734554</v>
       </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1417,29 +1359,21 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>14736288513</v>
+        <v>2838475818</v>
       </c>
       <c r="C30" t="n">
-        <v>4838475818</v>
+        <v>2905246550</v>
       </c>
       <c r="D30" t="n">
-        <v>4838475818</v>
+        <v>2905246550</v>
       </c>
       <c r="E30" t="n">
-        <v>2838475818</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2838475818</v>
-      </c>
-      <c r="G30" t="n">
         <v>2905246550</v>
       </c>
-      <c r="H30" t="n">
-        <v>2905246550</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2905246550</v>
-      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
@@ -1525,29 +1459,21 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24540000000</v>
+        <v>22540000000</v>
       </c>
       <c r="C34" t="n">
-        <v>24540000000</v>
+        <v>22540000000</v>
       </c>
       <c r="D34" t="n">
-        <v>24540000000</v>
+        <v>3000000000</v>
       </c>
       <c r="E34" t="n">
-        <v>22540000000</v>
-      </c>
-      <c r="F34" t="n">
-        <v>22540000000</v>
-      </c>
-      <c r="G34" t="n">
-        <v>22540000000</v>
-      </c>
-      <c r="H34" t="n">
         <v>3000000000</v>
       </c>
-      <c r="I34" t="n">
-        <v>3000000000</v>
-      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
@@ -1610,29 +1536,21 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-9803711487</v>
+        <v>-19701524182</v>
       </c>
       <c r="C37" t="n">
-        <v>-19701524182</v>
+        <v>-19634753450</v>
       </c>
       <c r="D37" t="n">
-        <v>-19701524182</v>
+        <v>-94753450</v>
       </c>
       <c r="E37" t="n">
-        <v>-19701524182</v>
-      </c>
-      <c r="F37" t="n">
-        <v>-19701524182</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-19634753450</v>
-      </c>
-      <c r="H37" t="n">
         <v>-94753450</v>
       </c>
-      <c r="I37" t="n">
-        <v>-94753450</v>
-      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
@@ -1649,53 +1567,45 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>585547756591</v>
+        <v>554820650912</v>
       </c>
       <c r="C38" t="n">
-        <v>595402569540</v>
+        <v>545543991339</v>
       </c>
       <c r="D38" t="n">
-        <v>604012552747</v>
+        <v>568336829773</v>
       </c>
       <c r="E38" t="n">
-        <v>560811996167</v>
+        <v>565918438076</v>
       </c>
       <c r="F38" t="n">
-        <v>554820650912</v>
+        <v>541906235927</v>
       </c>
       <c r="G38" t="n">
-        <v>545543991339</v>
+        <v>555859183813</v>
       </c>
       <c r="H38" t="n">
-        <v>568336829773</v>
+        <v>562368344273</v>
       </c>
       <c r="I38" t="n">
-        <v>565918438076</v>
+        <v>586622607448</v>
       </c>
       <c r="J38" t="n">
-        <v>541906235927</v>
+        <v>573275008695</v>
       </c>
       <c r="K38" t="n">
-        <v>555859183813</v>
+        <v>583606445091</v>
       </c>
       <c r="L38" t="n">
-        <v>562368344273</v>
+        <v>577408975796</v>
       </c>
       <c r="M38" t="n">
-        <v>586622607448</v>
-      </c>
-      <c r="N38" t="n">
-        <v>573275008695</v>
-      </c>
-      <c r="O38" t="n">
-        <v>583606445091</v>
-      </c>
-      <c r="P38" t="n">
-        <v>577408975796</v>
-      </c>
-      <c r="Q38" t="n">
         <v>566581662661</v>
       </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1704,53 +1614,45 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>306016308840</v>
+        <v>279462973469</v>
       </c>
       <c r="C39" t="n">
-        <v>316367768679</v>
+        <v>272377860252</v>
       </c>
       <c r="D39" t="n">
-        <v>321975116336</v>
+        <v>294338483719</v>
       </c>
       <c r="E39" t="n">
-        <v>283564545623</v>
+        <v>296552742306</v>
       </c>
       <c r="F39" t="n">
-        <v>279462973469</v>
+        <v>281641744193</v>
       </c>
       <c r="G39" t="n">
-        <v>272377860252</v>
+        <v>286260946027</v>
       </c>
       <c r="H39" t="n">
-        <v>294338483719</v>
+        <v>281010704445</v>
       </c>
       <c r="I39" t="n">
-        <v>296552742306</v>
+        <v>277876166740</v>
       </c>
       <c r="J39" t="n">
-        <v>281641744193</v>
+        <v>270524362301</v>
       </c>
       <c r="K39" t="n">
-        <v>286260946027</v>
+        <v>278874747262</v>
       </c>
       <c r="L39" t="n">
-        <v>281010704445</v>
+        <v>275527706585</v>
       </c>
       <c r="M39" t="n">
-        <v>277876166740</v>
-      </c>
-      <c r="N39" t="n">
-        <v>270524362301</v>
-      </c>
-      <c r="O39" t="n">
-        <v>278874747262</v>
-      </c>
-      <c r="P39" t="n">
-        <v>275527706585</v>
-      </c>
-      <c r="Q39" t="n">
         <v>272221068710</v>
       </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1759,53 +1661,45 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>623404774642</v>
+        <v>640731878106</v>
       </c>
       <c r="C40" t="n">
-        <v>645486497178</v>
+        <v>647867062875</v>
       </c>
       <c r="D40" t="n">
-        <v>663852076440</v>
+        <v>683460226775</v>
       </c>
       <c r="E40" t="n">
-        <v>634925574169</v>
+        <v>700659896088</v>
       </c>
       <c r="F40" t="n">
-        <v>640731878106</v>
+        <v>701069074528</v>
       </c>
       <c r="G40" t="n">
-        <v>647867062875</v>
+        <v>702017650134</v>
       </c>
       <c r="H40" t="n">
-        <v>683460226775</v>
+        <v>710374618388</v>
       </c>
       <c r="I40" t="n">
-        <v>700659896088</v>
+        <v>712522153470</v>
       </c>
       <c r="J40" t="n">
-        <v>701069074528</v>
+        <v>719939038004</v>
       </c>
       <c r="K40" t="n">
-        <v>702017650134</v>
+        <v>739580060425</v>
       </c>
       <c r="L40" t="n">
-        <v>710374618388</v>
+        <v>749427201981</v>
       </c>
       <c r="M40" t="n">
-        <v>712522153470</v>
-      </c>
-      <c r="N40" t="n">
-        <v>719939038004</v>
-      </c>
-      <c r="O40" t="n">
-        <v>739580060425</v>
-      </c>
-      <c r="P40" t="n">
-        <v>749427201981</v>
-      </c>
-      <c r="Q40" t="n">
         <v>760161985194</v>
       </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1814,53 +1708,45 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-317388465802</v>
+        <v>-361268904637</v>
       </c>
       <c r="C41" t="n">
-        <v>-329118728499</v>
+        <v>-375489202623</v>
       </c>
       <c r="D41" t="n">
-        <v>-341876960104</v>
+        <v>-389121743056</v>
       </c>
       <c r="E41" t="n">
-        <v>-351361028546</v>
+        <v>-404107153782</v>
       </c>
       <c r="F41" t="n">
-        <v>-361268904637</v>
+        <v>-419427330335</v>
       </c>
       <c r="G41" t="n">
-        <v>-375489202623</v>
+        <v>-415756704107</v>
       </c>
       <c r="H41" t="n">
-        <v>-389121743056</v>
+        <v>-429363913943</v>
       </c>
       <c r="I41" t="n">
-        <v>-404107153782</v>
+        <v>-434645986730</v>
       </c>
       <c r="J41" t="n">
-        <v>-419427330335</v>
+        <v>-449414675703</v>
       </c>
       <c r="K41" t="n">
-        <v>-415756704107</v>
+        <v>-460705313163</v>
       </c>
       <c r="L41" t="n">
-        <v>-429363913943</v>
+        <v>-473899495396</v>
       </c>
       <c r="M41" t="n">
-        <v>-434645986730</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-449414675703</v>
-      </c>
-      <c r="O41" t="n">
-        <v>-460705313163</v>
-      </c>
-      <c r="P41" t="n">
-        <v>-473899495396</v>
-      </c>
-      <c r="Q41" t="n">
         <v>-487940916484</v>
       </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1938,53 +1824,45 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>279531447751</v>
+        <v>275357677443</v>
       </c>
       <c r="C45" t="n">
-        <v>279034800861</v>
+        <v>273166131087</v>
       </c>
       <c r="D45" t="n">
-        <v>282037436411</v>
+        <v>273998346054</v>
       </c>
       <c r="E45" t="n">
-        <v>277247450544</v>
+        <v>269365695770</v>
       </c>
       <c r="F45" t="n">
-        <v>275357677443</v>
+        <v>260264491734</v>
       </c>
       <c r="G45" t="n">
-        <v>273166131087</v>
+        <v>269598237786</v>
       </c>
       <c r="H45" t="n">
-        <v>273998346054</v>
+        <v>281257639828</v>
       </c>
       <c r="I45" t="n">
-        <v>269365695770</v>
+        <v>308746440708</v>
       </c>
       <c r="J45" t="n">
-        <v>260264491734</v>
+        <v>302750646394</v>
       </c>
       <c r="K45" t="n">
-        <v>269598237786</v>
+        <v>304731697829</v>
       </c>
       <c r="L45" t="n">
-        <v>281257639828</v>
+        <v>301881269211</v>
       </c>
       <c r="M45" t="n">
-        <v>308746440708</v>
-      </c>
-      <c r="N45" t="n">
-        <v>302750646394</v>
-      </c>
-      <c r="O45" t="n">
-        <v>304731697829</v>
-      </c>
-      <c r="P45" t="n">
-        <v>301881269211</v>
-      </c>
-      <c r="Q45" t="n">
         <v>294360593951</v>
       </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1993,53 +1871,45 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>409587651401</v>
+        <v>441169820814</v>
       </c>
       <c r="C46" t="n">
-        <v>418215816476</v>
+        <v>448220335527</v>
       </c>
       <c r="D46" t="n">
-        <v>429990657466</v>
+        <v>458520451568</v>
       </c>
       <c r="E46" t="n">
-        <v>-434022817356</v>
+        <v>463530664344</v>
       </c>
       <c r="F46" t="n">
-        <v>441169820814</v>
+        <v>463650664344</v>
       </c>
       <c r="G46" t="n">
-        <v>448220335527</v>
+        <v>481698064944</v>
       </c>
       <c r="H46" t="n">
-        <v>458520451568</v>
+        <v>502487706073</v>
       </c>
       <c r="I46" t="n">
-        <v>463530664344</v>
+        <v>539690644963</v>
       </c>
       <c r="J46" t="n">
-        <v>463650664344</v>
+        <v>543522318468</v>
       </c>
       <c r="K46" t="n">
-        <v>481698064944</v>
+        <v>555866230889</v>
       </c>
       <c r="L46" t="n">
-        <v>502487706073</v>
+        <v>563819897184</v>
       </c>
       <c r="M46" t="n">
-        <v>539690644963</v>
-      </c>
-      <c r="N46" t="n">
-        <v>543522318468</v>
-      </c>
-      <c r="O46" t="n">
-        <v>555866230889</v>
-      </c>
-      <c r="P46" t="n">
-        <v>563819897184</v>
-      </c>
-      <c r="Q46" t="n">
         <v>567412419784</v>
       </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2048,53 +1918,45 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-130056203650</v>
+        <v>-165812143371</v>
       </c>
       <c r="C47" t="n">
-        <v>-1391811015615</v>
+        <v>-175054204440</v>
       </c>
       <c r="D47" t="n">
-        <v>-147953221055</v>
+        <v>-184522105514</v>
       </c>
       <c r="E47" t="n">
-        <v>-156775366812</v>
+        <v>-194164968574</v>
       </c>
       <c r="F47" t="n">
-        <v>-165812143371</v>
+        <v>-203386172610</v>
       </c>
       <c r="G47" t="n">
-        <v>-175054204440</v>
+        <v>-212099827158</v>
       </c>
       <c r="H47" t="n">
-        <v>-184522105514</v>
+        <v>-221130066245</v>
       </c>
       <c r="I47" t="n">
-        <v>-194164968574</v>
+        <v>-230944204255</v>
       </c>
       <c r="J47" t="n">
-        <v>-203386172610</v>
+        <v>-240771672074</v>
       </c>
       <c r="K47" t="n">
-        <v>-212099827158</v>
+        <v>-251134533060</v>
       </c>
       <c r="L47" t="n">
-        <v>-221130066245</v>
+        <v>-261938627973</v>
       </c>
       <c r="M47" t="n">
-        <v>-230944204255</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-240771672074</v>
-      </c>
-      <c r="O47" t="n">
-        <v>-251134533060</v>
-      </c>
-      <c r="P47" t="n">
-        <v>-261938627973</v>
-      </c>
-      <c r="Q47" t="n">
         <v>-273051825833</v>
       </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2171,13 +2033,13 @@
           <t>IV. Tài sản dở dang dài hạn</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="n">
+        <v>387075000000</v>
+      </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="n">
-        <v>387075000000</v>
-      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
@@ -2196,13 +2058,13 @@
           <t>1. Chi phí sản xuất, kinh doanh dở dang dài hạn</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="n">
+        <v>390000000000</v>
+      </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="n">
-        <v>390000000000</v>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
@@ -2221,13 +2083,13 @@
           <t>2. Chi phí xây dựng cơ bản dở dang</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="n">
+        <v>-2925000000</v>
+      </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="n">
-        <v>-2925000000</v>
-      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -2247,53 +2109,45 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4112100531586</v>
+        <v>4603472162702</v>
       </c>
       <c r="C54" t="n">
-        <v>3473613613512</v>
+        <v>7463854283416</v>
       </c>
       <c r="D54" t="n">
-        <v>3519870006949</v>
+        <v>5727036182199</v>
       </c>
       <c r="E54" t="n">
-        <v>4072291618487</v>
+        <v>8990955230387</v>
       </c>
       <c r="F54" t="n">
-        <v>4603472162702</v>
+        <v>9011240872288</v>
       </c>
       <c r="G54" t="n">
-        <v>7463854283416</v>
+        <v>10179731499429</v>
       </c>
       <c r="H54" t="n">
-        <v>5727036182199</v>
+        <v>10623318273711</v>
       </c>
       <c r="I54" t="n">
-        <v>8990955230387</v>
+        <v>12517452615837</v>
       </c>
       <c r="J54" t="n">
-        <v>9011240872288</v>
+        <v>12824814391983</v>
       </c>
       <c r="K54" t="n">
-        <v>10179731499429</v>
+        <v>12698566641677</v>
       </c>
       <c r="L54" t="n">
-        <v>10623318273711</v>
+        <v>11613675000776</v>
       </c>
       <c r="M54" t="n">
-        <v>12517452615837</v>
-      </c>
-      <c r="N54" t="n">
-        <v>12824814391983</v>
-      </c>
-      <c r="O54" t="n">
-        <v>12698566641677</v>
-      </c>
-      <c r="P54" t="n">
-        <v>11613675000776</v>
-      </c>
-      <c r="Q54" t="n">
         <v>12971938698397</v>
       </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2302,53 +2156,45 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2218313895722</v>
+        <v>2627970632687</v>
       </c>
       <c r="C55" t="n">
-        <v>1683912353040</v>
+        <v>5633074457771</v>
       </c>
       <c r="D55" t="n">
-        <v>1612247490149</v>
+        <v>3931101332264</v>
       </c>
       <c r="E55" t="n">
-        <v>2154962312782</v>
+        <v>7274805446793</v>
       </c>
       <c r="F55" t="n">
-        <v>2627970632687</v>
+        <v>7139623073441</v>
       </c>
       <c r="G55" t="n">
-        <v>5633074457771</v>
+        <v>8178697054209</v>
       </c>
       <c r="H55" t="n">
-        <v>3931101332264</v>
+        <v>8406139847162</v>
       </c>
       <c r="I55" t="n">
-        <v>7274805446793</v>
+        <v>7085618302976</v>
       </c>
       <c r="J55" t="n">
-        <v>7139623073441</v>
+        <v>5985288138979</v>
       </c>
       <c r="K55" t="n">
-        <v>8178697054209</v>
+        <v>7370512044658</v>
       </c>
       <c r="L55" t="n">
-        <v>8406139847162</v>
+        <v>6035232181745</v>
       </c>
       <c r="M55" t="n">
-        <v>7085618302976</v>
-      </c>
-      <c r="N55" t="n">
-        <v>5985288138979</v>
-      </c>
-      <c r="O55" t="n">
-        <v>7370512044658</v>
-      </c>
-      <c r="P55" t="n">
-        <v>6035232181745</v>
-      </c>
-      <c r="Q55" t="n">
         <v>5954141911259</v>
       </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2357,53 +2203,45 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1469453980758</v>
+        <v>1566010307783</v>
       </c>
       <c r="C56" t="n">
-        <v>1401523985520</v>
+        <v>1519027836647</v>
       </c>
       <c r="D56" t="n">
-        <v>1353884857161</v>
+        <v>1467107575059</v>
       </c>
       <c r="E56" t="n">
-        <v>1461124415744</v>
+        <v>1382777264565</v>
       </c>
       <c r="F56" t="n">
-        <v>1566010307783</v>
+        <v>1506080480092</v>
       </c>
       <c r="G56" t="n">
-        <v>1519027836647</v>
+        <v>1460394782927</v>
       </c>
       <c r="H56" t="n">
-        <v>1467107575059</v>
+        <v>1505027896832</v>
       </c>
       <c r="I56" t="n">
-        <v>1382777264565</v>
+        <v>1337967329025</v>
       </c>
       <c r="J56" t="n">
-        <v>1506080480092</v>
+        <v>1698400152014</v>
       </c>
       <c r="K56" t="n">
-        <v>1460394782927</v>
+        <v>1936731434792</v>
       </c>
       <c r="L56" t="n">
-        <v>1505027896832</v>
+        <v>2126828862560</v>
       </c>
       <c r="M56" t="n">
-        <v>1337967329025</v>
-      </c>
-      <c r="N56" t="n">
-        <v>1698400152014</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1936731434792</v>
-      </c>
-      <c r="P56" t="n">
-        <v>2126828862560</v>
-      </c>
-      <c r="Q56" t="n">
         <v>2343551921145</v>
       </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2415,21 +2253,21 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>370337318755</v>
+      </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>370337318755</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>9099678</v>
+      </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
-      <c r="P57" t="n">
-        <v>9099678</v>
-      </c>
+      <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
@@ -2439,51 +2277,43 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>429132655106</v>
+        <v>414291222232</v>
       </c>
       <c r="C58" t="n">
-        <v>392977274952</v>
+        <v>316551988998</v>
       </c>
       <c r="D58" t="n">
-        <v>558537659639</v>
+        <v>333627274876</v>
       </c>
       <c r="E58" t="n">
-        <v>461004889961</v>
-      </c>
-      <c r="F58" t="n">
-        <v>414291222232</v>
-      </c>
+        <v>338172519029</v>
+      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="n">
-        <v>316551988998</v>
+        <v>545439662293</v>
       </c>
       <c r="H58" t="n">
-        <v>333627274876</v>
+        <v>716950529717</v>
       </c>
       <c r="I58" t="n">
-        <v>338172519029</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>4098666983836</v>
+      </c>
+      <c r="J58" t="n">
+        <v>5145926100990</v>
+      </c>
       <c r="K58" t="n">
-        <v>545439662293</v>
+        <v>3396123162227</v>
       </c>
       <c r="L58" t="n">
-        <v>716950529717</v>
+        <v>3456404856793</v>
       </c>
       <c r="M58" t="n">
-        <v>4098666983836</v>
-      </c>
-      <c r="N58" t="n">
-        <v>5145926100990</v>
-      </c>
-      <c r="O58" t="n">
-        <v>3396123162227</v>
-      </c>
-      <c r="P58" t="n">
-        <v>3456404856793</v>
-      </c>
-      <c r="Q58" t="n">
         <v>4679044865993</v>
       </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2499,13 +2329,13 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>-4800000000</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
-        <v>-4800000000</v>
-      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -2701,53 +2531,45 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>106412880230987</v>
+        <v>132874490544524</v>
       </c>
       <c r="C68" t="n">
-        <v>118159970847748</v>
+        <v>152687082939055</v>
       </c>
       <c r="D68" t="n">
-        <v>118958414220706</v>
+        <v>160297409356400</v>
       </c>
       <c r="E68" t="n">
-        <v>124397700890376</v>
+        <v>167141540638365</v>
       </c>
       <c r="F68" t="n">
-        <v>132874490544524</v>
+        <v>167596082159838</v>
       </c>
       <c r="G68" t="n">
-        <v>152687082939055</v>
+        <v>184491035016344</v>
       </c>
       <c r="H68" t="n">
-        <v>160297409356400</v>
+        <v>187748480030263</v>
       </c>
       <c r="I68" t="n">
-        <v>167141540638365</v>
+        <v>188857392503219</v>
       </c>
       <c r="J68" t="n">
-        <v>167596082159838</v>
+        <v>193149539586748</v>
       </c>
       <c r="K68" t="n">
-        <v>184491035016344</v>
+        <v>193994237850692</v>
       </c>
       <c r="L68" t="n">
-        <v>187748480030263</v>
+        <v>199141150443534</v>
       </c>
       <c r="M68" t="n">
-        <v>188857392503219</v>
-      </c>
-      <c r="N68" t="n">
-        <v>193149539586748</v>
-      </c>
-      <c r="O68" t="n">
-        <v>193994237850692</v>
-      </c>
-      <c r="P68" t="n">
-        <v>199141150443534</v>
-      </c>
-      <c r="Q68" t="n">
         <v>211291630043153</v>
       </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2756,53 +2578,45 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>175045829925</v>
+        <v>156704573562</v>
       </c>
       <c r="C69" t="n">
-        <v>170256322260</v>
+        <v>152190306083</v>
       </c>
       <c r="D69" t="n">
-        <v>165974983022</v>
+        <v>146226516230</v>
       </c>
       <c r="E69" t="n">
-        <v>160459412869</v>
+        <v>138224500985</v>
       </c>
       <c r="F69" t="n">
-        <v>156704573562</v>
+        <v>134430479536</v>
       </c>
       <c r="G69" t="n">
-        <v>152190306083</v>
+        <v>130606957051</v>
       </c>
       <c r="H69" t="n">
-        <v>146226516230</v>
+        <v>125586537296</v>
       </c>
       <c r="I69" t="n">
-        <v>138224500985</v>
+        <v>120612685067</v>
       </c>
       <c r="J69" t="n">
-        <v>134430479536</v>
+        <v>115329778182</v>
       </c>
       <c r="K69" t="n">
-        <v>130606957051</v>
+        <v>2594629745606</v>
       </c>
       <c r="L69" t="n">
-        <v>125586537296</v>
+        <v>107786323377</v>
       </c>
       <c r="M69" t="n">
-        <v>120612685067</v>
-      </c>
-      <c r="N69" t="n">
-        <v>115329778182</v>
-      </c>
-      <c r="O69" t="n">
-        <v>2594629745606</v>
-      </c>
-      <c r="P69" t="n">
-        <v>107786323377</v>
-      </c>
-      <c r="Q69" t="n">
         <v>104073484804</v>
       </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3018,53 +2832,45 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>9675384147394</v>
+        <v>17342638865616</v>
       </c>
       <c r="C79" t="n">
-        <v>18368865706788</v>
+        <v>22837720715725</v>
       </c>
       <c r="D79" t="n">
-        <v>13729137477419</v>
+        <v>26275494364651</v>
       </c>
       <c r="E79" t="n">
-        <v>11509394233131</v>
+        <v>13547889883671</v>
       </c>
       <c r="F79" t="n">
-        <v>17342638865616</v>
+        <v>23598200131155</v>
       </c>
       <c r="G79" t="n">
-        <v>22837720715725</v>
+        <v>32038024327577</v>
       </c>
       <c r="H79" t="n">
-        <v>26275494364651</v>
+        <v>36115244566737</v>
       </c>
       <c r="I79" t="n">
-        <v>13547889883671</v>
+        <v>37516764934854</v>
       </c>
       <c r="J79" t="n">
-        <v>23598200131155</v>
+        <v>34778484111889</v>
       </c>
       <c r="K79" t="n">
-        <v>32038024327577</v>
+        <v>22630345782812</v>
       </c>
       <c r="L79" t="n">
-        <v>36115244566737</v>
+        <v>23360426655487</v>
       </c>
       <c r="M79" t="n">
-        <v>37516764934854</v>
-      </c>
-      <c r="N79" t="n">
-        <v>34778484111889</v>
-      </c>
-      <c r="O79" t="n">
-        <v>22630345782812</v>
-      </c>
-      <c r="P79" t="n">
-        <v>23360426655487</v>
-      </c>
-      <c r="Q79" t="n">
         <v>29597220744201</v>
       </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3073,51 +2879,43 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>7528865973582</v>
+        <v>10830265896271</v>
       </c>
       <c r="C80" t="n">
-        <v>13693945020646</v>
+        <v>16669339234868</v>
       </c>
       <c r="D80" t="n">
-        <v>11262841381366</v>
-      </c>
-      <c r="E80" t="n">
-        <v>10051405046432</v>
-      </c>
+        <v>20364078001562</v>
+      </c>
+      <c r="E80" t="inlineStr"/>
       <c r="F80" t="n">
-        <v>10830265896271</v>
+        <v>12779666569537</v>
       </c>
       <c r="G80" t="n">
-        <v>16669339234868</v>
+        <v>20066737249229</v>
       </c>
       <c r="H80" t="n">
-        <v>20364078001562</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>30240141836023</v>
+      </c>
+      <c r="I80" t="n">
+        <v>32452782096981</v>
+      </c>
       <c r="J80" t="n">
-        <v>12779666569537</v>
+        <v>28631255621648</v>
       </c>
       <c r="K80" t="n">
-        <v>20066737249229</v>
+        <v>20058542110690</v>
       </c>
       <c r="L80" t="n">
-        <v>30240141836023</v>
+        <v>22202907475540</v>
       </c>
       <c r="M80" t="n">
-        <v>32452782096981</v>
-      </c>
-      <c r="N80" t="n">
-        <v>28631255621648</v>
-      </c>
-      <c r="O80" t="n">
-        <v>20058542110690</v>
-      </c>
-      <c r="P80" t="n">
-        <v>22202907475540</v>
-      </c>
-      <c r="Q80" t="n">
         <v>24394233713470</v>
       </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3126,53 +2924,45 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2146518173812</v>
+        <v>6512372969345</v>
       </c>
       <c r="C81" t="n">
-        <v>4674920686142</v>
+        <v>6168381480857</v>
       </c>
       <c r="D81" t="n">
-        <v>2466296096053</v>
+        <v>5911416363089</v>
       </c>
       <c r="E81" t="n">
-        <v>1457989186699</v>
+        <v>12018234399630</v>
       </c>
       <c r="F81" t="n">
-        <v>6512372969345</v>
+        <v>10818533561618</v>
       </c>
       <c r="G81" t="n">
-        <v>6168381480857</v>
+        <v>11971287078348</v>
       </c>
       <c r="H81" t="n">
-        <v>5911416363089</v>
+        <v>5875102730714</v>
       </c>
       <c r="I81" t="n">
-        <v>12018234399630</v>
+        <v>5063982837873</v>
       </c>
       <c r="J81" t="n">
-        <v>10818533561618</v>
+        <v>6147228490241</v>
       </c>
       <c r="K81" t="n">
-        <v>11971287078348</v>
+        <v>2571803672122</v>
       </c>
       <c r="L81" t="n">
-        <v>5875102730714</v>
+        <v>1157519179947</v>
       </c>
       <c r="M81" t="n">
-        <v>5063982837873</v>
-      </c>
-      <c r="N81" t="n">
-        <v>6147228490241</v>
-      </c>
-      <c r="O81" t="n">
-        <v>2571803672122</v>
-      </c>
-      <c r="P81" t="n">
-        <v>1157519179947</v>
-      </c>
-      <c r="Q81" t="n">
         <v>5202987030731</v>
       </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3227,53 +3017,45 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>66790513349961</v>
+        <v>77287023068286</v>
       </c>
       <c r="C84" t="n">
-        <v>69142056294441</v>
+        <v>87171375610769</v>
       </c>
       <c r="D84" t="n">
-        <v>71952077689187</v>
+        <v>92372391066741</v>
       </c>
       <c r="E84" t="n">
-        <v>75264136276226</v>
+        <v>96214684785509</v>
       </c>
       <c r="F84" t="n">
-        <v>77287023068286</v>
+        <v>93303921562786</v>
       </c>
       <c r="G84" t="n">
-        <v>87171375610769</v>
+        <v>98804612775544</v>
       </c>
       <c r="H84" t="n">
-        <v>92372391066741</v>
+        <v>98485363081386</v>
       </c>
       <c r="I84" t="n">
-        <v>96214684785509</v>
+        <v>96555437741794</v>
       </c>
       <c r="J84" t="n">
-        <v>93303921562786</v>
+        <v>98267571514292</v>
       </c>
       <c r="K84" t="n">
-        <v>98804612775544</v>
+        <v>102211486385844</v>
       </c>
       <c r="L84" t="n">
-        <v>98485363081386</v>
+        <v>105564005876246</v>
       </c>
       <c r="M84" t="n">
-        <v>96555437741794</v>
-      </c>
-      <c r="N84" t="n">
-        <v>98267571514292</v>
-      </c>
-      <c r="O84" t="n">
-        <v>102211486385844</v>
-      </c>
-      <c r="P84" t="n">
-        <v>105564005876246</v>
-      </c>
-      <c r="Q84" t="n">
         <v>110455787770107</v>
       </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3581,53 +3363,45 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>95928129207760</v>
+        <v>116968658517265</v>
       </c>
       <c r="C98" t="n">
-        <v>106652383819399</v>
+        <v>135251323037821</v>
       </c>
       <c r="D98" t="n">
-        <v>106549514910160</v>
+        <v>141834030268710</v>
       </c>
       <c r="E98" t="n">
-        <v>108974989199612</v>
+        <v>147604583835213</v>
       </c>
       <c r="F98" t="n">
-        <v>116968658517265</v>
+        <v>147170964193106</v>
       </c>
       <c r="G98" t="n">
-        <v>135251323037821</v>
+        <v>162686025615989</v>
       </c>
       <c r="H98" t="n">
-        <v>141834030268710</v>
+        <v>165276378359289</v>
       </c>
       <c r="I98" t="n">
-        <v>147604583835213</v>
+        <v>165710448026382</v>
       </c>
       <c r="J98" t="n">
-        <v>147170964193106</v>
+        <v>169267879018128</v>
       </c>
       <c r="K98" t="n">
-        <v>162686025615989</v>
+        <v>168721969959897</v>
       </c>
       <c r="L98" t="n">
-        <v>165276378359289</v>
+        <v>173084656263804</v>
       </c>
       <c r="M98" t="n">
-        <v>165710448026382</v>
-      </c>
-      <c r="N98" t="n">
-        <v>169267879018128</v>
-      </c>
-      <c r="O98" t="n">
-        <v>168721969959897</v>
-      </c>
-      <c r="P98" t="n">
-        <v>173084656263804</v>
-      </c>
-      <c r="Q98" t="n">
         <v>184019323495849</v>
       </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3659,51 +3433,43 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>6599210630000</v>
+        <v>8767250750000</v>
       </c>
       <c r="C100" t="n">
-        <v>7898570750000</v>
+        <v>10959063430000</v>
       </c>
       <c r="D100" t="n">
-        <v>7898570750000</v>
+        <v>10959063430000</v>
       </c>
       <c r="E100" t="n">
-        <v>8767250750000</v>
+        <v>10959063430000</v>
       </c>
       <c r="F100" t="n">
-        <v>8767250750000</v>
+        <v>10959063430000</v>
       </c>
       <c r="G100" t="n">
-        <v>10959063430000</v>
-      </c>
-      <c r="H100" t="n">
-        <v>10959063430000</v>
-      </c>
+        <v>13698828630000</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>10959063430000</v>
+        <v>13698828630000</v>
       </c>
       <c r="J100" t="n">
-        <v>10959063430000</v>
+        <v>13698828630000</v>
       </c>
       <c r="K100" t="n">
         <v>13698828630000</v>
       </c>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>13698828630000</v>
+      </c>
       <c r="M100" t="n">
         <v>13698828630000</v>
       </c>
-      <c r="N100" t="n">
-        <v>13698828630000</v>
-      </c>
-      <c r="O100" t="n">
-        <v>13698828630000</v>
-      </c>
-      <c r="P100" t="n">
-        <v>13698828630000</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>13698828630000</v>
-      </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3762,13 +3528,13 @@
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>1702686397348</v>
+      </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>1702686397348</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr"/>
@@ -3783,51 +3549,43 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>151217253124</v>
+        <v>1703006297348</v>
       </c>
       <c r="C104" t="n">
-        <v>151217253124</v>
+        <v>1702961297348</v>
       </c>
       <c r="D104" t="n">
-        <v>151217253124</v>
+        <v>1702686297348</v>
       </c>
       <c r="E104" t="n">
-        <v>1733952213124</v>
+        <v>1702686297348</v>
       </c>
       <c r="F104" t="n">
-        <v>1703006297348</v>
-      </c>
-      <c r="G104" t="n">
-        <v>1702961297348</v>
-      </c>
+        <v>1702686297348</v>
+      </c>
+      <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
         <v>1702686297348</v>
       </c>
       <c r="I104" t="n">
-        <v>1702686297348</v>
+        <v>1702686397348</v>
       </c>
       <c r="J104" t="n">
         <v>1702686297348</v>
       </c>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1702686297348</v>
+      </c>
       <c r="L104" t="n">
         <v>1702686297348</v>
       </c>
       <c r="M104" t="n">
-        <v>1702686397348</v>
-      </c>
-      <c r="N104" t="n">
         <v>1702686297348</v>
       </c>
-      <c r="O104" t="n">
-        <v>1702686297348</v>
-      </c>
-      <c r="P104" t="n">
-        <v>1702686297348</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>1702686297348</v>
-      </c>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3974,53 +3732,45 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>688441619221</v>
+        <v>1075944773514</v>
       </c>
       <c r="C111" t="n">
-        <v>688441619221</v>
+        <v>1075944773514</v>
       </c>
       <c r="D111" t="n">
-        <v>1075944773514</v>
+        <v>1605440094315</v>
       </c>
       <c r="E111" t="n">
-        <v>1075944773514</v>
+        <v>1605440094315</v>
       </c>
       <c r="F111" t="n">
-        <v>1075944773514</v>
+        <v>1605440094315</v>
       </c>
       <c r="G111" t="n">
-        <v>1075944773514</v>
+        <v>2266840303564</v>
       </c>
       <c r="H111" t="n">
-        <v>1605440094315</v>
+        <v>2266840303564</v>
       </c>
       <c r="I111" t="n">
-        <v>1605440094315</v>
+        <v>2266840303564</v>
       </c>
       <c r="J111" t="n">
-        <v>1605440094315</v>
+        <v>2266840303564</v>
       </c>
       <c r="K111" t="n">
-        <v>2266840303564</v>
+        <v>2793408331147</v>
       </c>
       <c r="L111" t="n">
-        <v>2266840303564</v>
+        <v>2793404054952</v>
       </c>
       <c r="M111" t="n">
-        <v>2266840303564</v>
-      </c>
-      <c r="N111" t="n">
-        <v>2266840303564</v>
-      </c>
-      <c r="O111" t="n">
-        <v>2793408331147</v>
-      </c>
-      <c r="P111" t="n">
         <v>2793404054952</v>
       </c>
-      <c r="Q111" t="n">
-        <v>2793404054952</v>
-      </c>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4144,45 +3894,39 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>6106617750</v>
+        <v>-3384695603</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>16226682921</v>
+        <v>16519182383</v>
       </c>
       <c r="E117" t="n">
-        <v>-108481659</v>
+        <v>17233029422</v>
       </c>
       <c r="F117" t="n">
-        <v>-3384695603</v>
+        <v>20235775037</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>16519182383</v>
+        <v>-1166394920</v>
       </c>
       <c r="I117" t="n">
-        <v>17233029422</v>
+        <v>-6299227121</v>
       </c>
       <c r="J117" t="n">
-        <v>20235775037</v>
+        <v>1112334371</v>
       </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
-        <v>-1166394920</v>
+        <v>-2165138906</v>
       </c>
       <c r="M117" t="n">
-        <v>-6299227121</v>
-      </c>
-      <c r="N117" t="n">
-        <v>1112334371</v>
-      </c>
+        <v>-7441653854</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
-      <c r="P117" t="n">
-        <v>-2165138906</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>-7441653854</v>
-      </c>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
